--- a/xlsx/IPhone_intext.xlsx
+++ b/xlsx/IPhone_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1176">
   <si>
     <t>IPhone</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/IPhone_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>IPhone (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_IPhone</t>
+    <t>IPhone (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_IPhone</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IPhone_X</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E5%95%86</t>
   </si>
   <si>
-    <t>製造商</t>
+    <t>制造商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Foxconn</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%B4%84%E8%A3%BD%E9%80%A0%E5%95%86</t>
   </si>
   <si>
-    <t>合約製造商</t>
+    <t>合约制造商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>行動電話</t>
+    <t>行动电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IPhone_(%E7%AC%AC%E4%B8%80%E4%BB%A3)</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IOS</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E7%89%99</t>
   </si>
   <si>
-    <t>藍牙</t>
+    <t>蓝牙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GSM</t>
@@ -407,19 +407,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>智慧型手機</t>
+    <t>智慧型手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IOS%E8%AE%BE%E5%A4%87%E5%88%97%E8%A1%A8</t>
@@ -431,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>行動作業系統</t>
+    <t>行动作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CEO</t>
@@ -449,13 +449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%8F%90%E5%A4%AB%C2%B7%E8%B3%88%E4%BC%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>史提夫·賈伯斯</t>
+    <t>史提夫·贾伯斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IPhone_8_Plus</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%9E%E8%A7%B8%E6%8E%A7</t>
   </si>
   <si>
-    <t>多點觸控</t>
+    <t>多点触控</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IPhone_6s</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E9%8D%B5%E7%9B%A4</t>
   </si>
   <si>
-    <t>虛擬鍵盤</t>
+    <t>虚拟键盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%83%B5%E4%BB%B6</t>
   </si>
   <si>
-    <t>電子郵件</t>
+    <t>电子邮件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2G</t>
@@ -527,9 +527,6 @@
     <t>https://zh.wikipedia.org/wiki/IOS%E8%A8%AD%E5%82%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>IOS設備列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/A-GPS</t>
   </si>
   <si>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>中央處理器</t>
+    <t>中央处理器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/480p</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%A0%B8%E5%BF%83</t>
   </si>
   <si>
-    <t>雙核心</t>
+    <t>双核心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1080p</t>
@@ -629,31 +626,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IPhone3G</t>
@@ -671,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%91%E8%86%A0</t>
   </si>
   <si>
-    <t>塑膠</t>
+    <t>塑胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E9%85%B8%E9%93%9D</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E9%8A%B9%E9%8B%BC</t>
   </si>
   <si>
-    <t>不銹鋼</t>
+    <t>不锈钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%BA%BF</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%81%AF%E9%80%9A</t>
   </si>
   <si>
-    <t>中國聯通</t>
+    <t>中国联通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A%E7%84%A1%E7%B7%9A</t>
   </si>
   <si>
-    <t>威訊無線</t>
+    <t>威讯无线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CDMA2000</t>
@@ -761,13 +758,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%AF%94%E8%92%82%E8%AB%BE</t>
   </si>
   <si>
-    <t>庫比蒂諾</t>
+    <t>库比蒂诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E5%BA%AB%E5%85%8B</t>
   </si>
   <si>
-    <t>提姆·庫克</t>
+    <t>提姆·库克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -779,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%9F%BA%E4%BA%9E</t>
   </si>
   <si>
-    <t>諾基亞</t>
+    <t>诺基亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/IHS_Inc.</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>三星電子</t>
+    <t>三星电子</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ComScore</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SK%E7%94%B5%E8%AE%AF</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E7%B4%8B</t>
   </si>
   <si>
-    <t>指紋</t>
+    <t>指纹</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/oleophobic</t>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%80%9F%E8%A6%8F</t>
   </si>
   <si>
-    <t>加速規</t>
+    <t>加速规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AGPS</t>
@@ -893,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AppleCare</t>
@@ -923,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E7%89%99%E8%A6%8F%E7%AF%84</t>
   </si>
   <si>
-    <t>藍牙規範</t>
+    <t>蓝牙规范</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E4%BB%8B</t>
   </si>
   <si>
-    <t>簡介</t>
+    <t>简介</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A2DP</t>
@@ -1007,13 +1004,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E5%B0%8D%E7%84%A6</t>
   </si>
   <si>
-    <t>自動對焦</t>
+    <t>自动对焦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IOS%E8%B6%8A%E7%8D%84</t>
   </si>
   <si>
-    <t>IOS越獄</t>
+    <t>IOS越狱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/OmniVision</t>
@@ -1091,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B4%E7%B4%8B%E9%87%9D</t>
   </si>
   <si>
-    <t>迴紋針</t>
+    <t>回纹针</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%80%81%E9%87%91%E5%B1%9E_(%E5%95%86%E5%93%81%E5%90%8D)</t>
@@ -1115,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E9%81%8A</t>
   </si>
   <si>
-    <t>漫遊</t>
+    <t>漫游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Verizon</t>
@@ -1157,19 +1154,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E7%88%BE</t>
   </si>
   <si>
-    <t>厄瓜多爾</t>
+    <t>厄瓜多尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apple_Darwin</t>
@@ -1187,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
-    <t>動畫</t>
+    <t>动画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OpenGL</t>
@@ -1217,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%BD%A2%E7%94%A8%E6%88%B6%E7%95%8C%E9%9D%A2</t>
   </si>
   <si>
-    <t>圖形用戶界面</t>
+    <t>图形用户界面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SMS</t>
@@ -1241,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E5%8D%97%E9%87%9D</t>
   </si>
   <si>
-    <t>指南針</t>
+    <t>指南针</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IPhone5</t>
@@ -1265,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8B%95%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>互動設計</t>
+    <t>互动设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FaceTime</t>
@@ -1277,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E8%81%B2</t>
   </si>
   <si>
-    <t>鈴聲</t>
+    <t>铃声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GarageBand</t>
@@ -1313,13 +1310,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>數碼電影</t>
+    <t>数码电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E5%B1%8F</t>
   </si>
   <si>
-    <t>寬屏</t>
+    <t>宽屏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IPhoto</t>
@@ -1391,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81%E8%99%9B%E5%81%BD%E6%A8%99%E7%A4%BA</t>
   </si>
   <si>
-    <t>商品虛偽標示</t>
+    <t>商品虚伪标示</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Google</t>
@@ -1457,31 +1454,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%E6%A3%AENV</t>
   </si>
   <si>
-    <t>尼爾森NV</t>
+    <t>尼尔森NV</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E9%94%AE%E7%9B%98</t>
   </si>
   <si>
-    <t>虚拟键盘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AA%E4%B8%8B%E3%80%81%E8%A4%87%E8%A3%BD%E3%80%81%E8%B2%BC%E4%B8%8A</t>
   </si>
   <si>
-    <t>剪下、複製、貼上</t>
+    <t>剪下、复制、贴上</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/HTML</t>
@@ -1541,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E5%B1%80%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>郵局協定</t>
+    <t>邮局协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Microsoft_Exchange_Server</t>
@@ -1595,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E9%96%8B%E7%99%BC%E5%B7%A5%E5%85%B7%E5%8C%85</t>
   </si>
   <si>
-    <t>軟件開發工具包</t>
+    <t>软件开发工具包</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Apple_Developer_Connection</t>
@@ -1625,13 +1619,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%9A%9C%E7%A4%99%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>無障礙環境</t>
+    <t>无障碍环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E8%97%8F%E5%AD%97%E5%B9%95</t>
   </si>
   <si>
-    <t>隱藏字幕</t>
+    <t>隐藏字幕</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Telecommunications_device_for_the_deaf</t>
@@ -1655,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%81%B2%E9%81%93</t>
   </si>
   <si>
-    <t>單聲道</t>
+    <t>单声道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Section_508_Amendment_to_the_Rehabilitation_Act_of_1973</t>
@@ -1697,13 +1691,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>顯示器</t>
+    <t>显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%AF%AC%E6%AF%94</t>
   </si>
   <si>
-    <t>長寬比</t>
+    <t>长宽比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B9%E9%87%8F</t>
@@ -1721,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E9%A0%BB</t>
   </si>
   <si>
-    <t>降頻</t>
+    <t>降频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%AE%80%E6%8C%87%E4%BB%A4%E9%9B%86</t>
@@ -1757,31 +1751,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E6%B5%81%E6%8E%92</t>
   </si>
   <si>
-    <t>匯流排</t>
+    <t>汇流排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%BD%A2%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>圖形處理器</t>
+    <t>图形处理器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%A0%B8%E5%BF%83%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>多核心處理器</t>
+    <t>多核心处理器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%8F%A2%E9%9B%86</t>
   </si>
   <si>
-    <t>計算機叢集</t>
+    <t>计算机丛集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>主記憶體</t>
+    <t>主记忆体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E6%80%81%E9%9A%8F%E6%9C%BA%E5%AD%98%E5%8F%96%E5%AD%98%E5%82%A8%E5%99%A8</t>
@@ -1793,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E6%8E%A5%E5%99%A8</t>
   </si>
   <si>
-    <t>連接器</t>
+    <t>连接器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Universal_Serial_Bus</t>
@@ -1829,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E9%A0%BB</t>
   </si>
   <si>
-    <t>四頻</t>
+    <t>四频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GPRS</t>
@@ -1841,13 +1835,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%A0%BB</t>
   </si>
   <si>
-    <t>三頻</t>
+    <t>三频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%A0%BB</t>
   </si>
   <si>
-    <t>雙頻</t>
+    <t>双频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Touch_ID</t>
@@ -1865,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%80%E8%9E%BA%E5%84%80</t>
   </si>
   <si>
-    <t>陀螺儀</t>
+    <t>陀螺仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%8F%E7%B4%A0</t>
@@ -1889,19 +1883,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%95%AB%E8%B3%AA</t>
   </si>
   <si>
-    <t>高畫質</t>
+    <t>高画质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E9%8F%BD%E9%8B%BC</t>
   </si>
   <si>
-    <t>不鏽鋼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%B0%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>鋰電池</t>
+    <t>锂电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E7%89%B9</t>
@@ -1913,7 +1904,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%93%A6%E6%99%82</t>
   </si>
   <si>
-    <t>千瓦時</t>
+    <t>千瓦时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MAh</t>
@@ -1949,19 +1940,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>思科系統</t>
+    <t>思科系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE</t>
@@ -1979,7 +1970,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E5%8D%94%E8%AD%B0%E9%80%9A%E8%A9%B1%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>網際協議通話技術</t>
+    <t>网际协议通话技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E5%85%AC%E5%8F%B8</t>
@@ -2069,9 +2060,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家安全局</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Hardware_restrictions</t>
   </si>
   <si>
@@ -2093,13 +2081,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F%E8%A6%96%E7%AA%97</t>
   </si>
   <si>
-    <t>微軟視窗</t>
+    <t>微软视窗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%B2%BF%E6%98%93%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯邦貿易委員會</t>
+    <t>联邦贸易委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Magnuson-Moss_Warranty_Act_of_1975</t>
@@ -2123,7 +2111,7 @@
     <t>https://zh.wikipedia.org/wiki/O2_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>O2 (英國)</t>
+    <t>O2 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%80%9D%E4%B9%B0</t>
@@ -2135,7 +2123,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%91%AA</t>
   </si>
   <si>
-    <t>沃爾瑪</t>
+    <t>沃尔玛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WWDC</t>
@@ -2147,9 +2135,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%81%94%E9%80%9A</t>
   </si>
   <si>
-    <t>中国联通</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E5%BA%B7</t>
   </si>
   <si>
@@ -2165,7 +2150,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%88%BE</t>
   </si>
   <si>
-    <t>戴爾</t>
+    <t>戴尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E4%BB%B6</t>
@@ -2189,9 +2174,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B9%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>苹果公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Apple_Store</t>
   </si>
   <si>
@@ -2387,7 +2369,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%9D%8E%E8%B2%9D%E7%88%BE_(%E5%95%86%E6%A5%AD%E5%9F%B7%E8%A1%8C%E9%95%B7)</t>
   </si>
   <si>
-    <t>威廉·坎貝爾 (商業執行長)</t>
+    <t>威廉·坎贝尔 (商业执行长)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Millard_Drexler</t>
@@ -2411,7 +2393,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%BE%E5%BD%AC%E5%AB%BB</t>
   </si>
   <si>
-    <t>鍾彬嫻</t>
+    <t>锺彬娴</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ronald_Sugar</t>
@@ -2423,7 +2405,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E5%8B%83%C2%B7%E4%BC%8A%E6%88%88%E7%88%BE</t>
   </si>
   <si>
-    <t>鮑勃·伊戈爾</t>
+    <t>鲍勃·伊戈尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jerry_York</t>
@@ -2495,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%C2%B7%E6%B3%95%E6%88%B4%E7%88%BE</t>
   </si>
   <si>
-    <t>托尼·法戴爾</t>
+    <t>托尼·法戴尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_Papermaster</t>
@@ -2525,7 +2507,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%81%A9%C2%B7%E9%AD%AF%E8%B3%93%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>喬恩·魯賓斯坦</t>
+    <t>乔恩·鲁宾斯坦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nancy_R._Heinen</t>
@@ -2555,7 +2537,7 @@
     <t>https://zh.wikipedia.org/wiki/MacOS%E7%89%88%E6%9C%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>MacOS版本歷史</t>
+    <t>MacOS版本历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MacOS_Server</t>
@@ -2711,7 +2693,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E6%A8%99%E6%BA%96%E9%8D%B5%E7%9B%A4</t>
   </si>
   <si>
-    <t>蘋果標準鍵盤</t>
+    <t>苹果标准键盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apple_TV</t>
@@ -2861,7 +2843,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%9C%92%E5%8D%80</t>
   </si>
   <si>
-    <t>蘋果園區</t>
+    <t>苹果园区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1984_(%E5%B9%BF%E5%91%8A)</t>
@@ -2909,7 +2891,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E9%9F%B3%E6%A8%82%E7%AF%80</t>
   </si>
   <si>
-    <t>蘋果音樂節</t>
+    <t>苹果音乐节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%85%8B%E6%96%AF%E5%8A%A8%E7%94%BB%E5%B7%A5%E4%BD%9C%E5%AE%A4</t>
@@ -2921,7 +2903,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E7%9A%84%E8%8B%B1%E7%89%B9%E7%88%BE%E5%B9%B3%E5%8F%B0%E9%81%B7%E7%A7%BB</t>
   </si>
   <si>
-    <t>蘋果的英特爾平台遷移</t>
+    <t>苹果的英特尔平台迁移</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IOS%E5%BA%94%E7%94%A8%E7%A8%8B%E5%BA%8F%E5%AE%A1%E6%A0%B8</t>
@@ -2951,7 +2933,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8B%E6%89%BE%E6%88%91%E7%9A%84%E6%9C%8B%E5%8F%8B</t>
   </si>
   <si>
-    <t>尋找我的朋友</t>
+    <t>寻找我的朋友</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IMovie</t>
@@ -2969,7 +2951,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E4%BB%B6_(Mac_OS_X)</t>
   </si>
   <si>
-    <t>郵件 (Mac OS X)</t>
+    <t>邮件 (Mac OS X)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B9%E6%9E%9C%E5%9C%B0%E5%9B%BE</t>
@@ -2987,7 +2969,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%99%E5%BF%98%E9%8C%84_(%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F)</t>
   </si>
   <si>
-    <t>備忘錄 (應用程式)</t>
+    <t>备忘录 (应用程式)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%9F%A5%E4%B8%AD%E5%BF%83</t>
@@ -3005,7 +2987,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E9%86%92%E4%BA%8B%E9%A0%85</t>
   </si>
   <si>
-    <t>提醒事項</t>
+    <t>提醒事项</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SpringBoard</t>
@@ -3041,9 +3023,6 @@
     <t>https://zh.wikipedia.org/wiki/IOS%E8%B6%8A%E7%8B%B1</t>
   </si>
   <si>
-    <t>IOS越狱</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/EMac</t>
   </si>
   <si>
@@ -3101,7 +3080,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E7%89%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>蘋果牛頓</t>
+    <t>苹果牛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AirPort</t>
@@ -3119,7 +3098,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E9%81%99%E6%8E%A7%E5%99%A8</t>
   </si>
   <si>
-    <t>蘋果遙控器</t>
+    <t>苹果遥控器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Time_Capsule</t>
@@ -3161,7 +3140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%AA%92%E9%AB%94%E7%9F%AD%E8%A8%8A</t>
   </si>
   <si>
-    <t>多媒體短訊</t>
+    <t>多媒体短讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_phone_spam</t>
@@ -3197,13 +3176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%BB%9F%E9%AB%94%E7%99%BC%E8%A1%8C%E5%B9%B3%E5%8F%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>行動軟體發行平台列表</t>
+    <t>行动软体发行平台列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E5%95%86%E5%8B%99</t>
   </si>
   <si>
-    <t>行動商務</t>
+    <t>行动商务</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_instant_messaging</t>
@@ -3215,7 +3194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>行動學習</t>
+    <t>行动学习</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_local_search</t>
@@ -3227,7 +3206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8A%E8%81%BD</t>
   </si>
   <si>
-    <t>竊聽</t>
+    <t>窃听</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E8%90%A5%E9%94%80</t>
@@ -3251,7 +3230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E6%94%AF%E4%BB%98</t>
   </si>
   <si>
-    <t>行動支付</t>
+    <t>行动支付</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Push_email</t>
@@ -3281,7 +3260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F%E5%90%8A%E9%A3%BE</t>
   </si>
   <si>
-    <t>手機吊飾</t>
+    <t>手机吊饰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_comic</t>
@@ -3293,7 +3272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%89%8B%E6%A9%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>日本手機文化</t>
+    <t>日本手机文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%9C%BA%E5%B0%8F%E8%AF%B4</t>
@@ -3323,7 +3302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>手機廣告</t>
+    <t>手机广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E8%AE%BE%E5%A4%87</t>
@@ -3341,7 +3320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E5%9E%8B%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>功能型手機</t>
+    <t>功能型手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E6%9C%BA%E6%89%8B%E6%9C%BA</t>
@@ -3365,7 +3344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F%E8%A6%8F%E6%A0%BC</t>
   </si>
   <si>
-    <t>手機規格</t>
+    <t>手机规格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Comparison_of_smartphones</t>
@@ -3419,13 +3398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E7%AB%8A%E8%81%BD</t>
   </si>
   <si>
-    <t>電話竊聽</t>
+    <t>电话窃听</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/992_(%E7%B7%8A%E6%80%A5%E7%9F%AD%E8%A8%8A%E6%B1%82%E5%8A%A9)</t>
   </si>
   <si>
-    <t>992 (緊急短訊求助)</t>
+    <t>992 (紧急短讯求助)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E9%81%93%E5%AE%B9%E9%87%8F</t>
@@ -3545,7 +3524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -6892,7 +6871,7 @@
         <v>169</v>
       </c>
       <c r="F103" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="G103" t="n">
         <v>18</v>
@@ -6947,10 +6926,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>170</v>
+      </c>
+      <c r="F105" t="s">
         <v>171</v>
-      </c>
-      <c r="F105" t="s">
-        <v>172</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6976,10 +6955,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F106" t="s">
         <v>173</v>
-      </c>
-      <c r="F106" t="s">
-        <v>174</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -7005,10 +6984,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>174</v>
+      </c>
+      <c r="F107" t="s">
         <v>175</v>
-      </c>
-      <c r="F107" t="s">
-        <v>176</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -7063,10 +7042,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>176</v>
+      </c>
+      <c r="F109" t="s">
         <v>177</v>
-      </c>
-      <c r="F109" t="s">
-        <v>178</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -7092,10 +7071,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>178</v>
+      </c>
+      <c r="F110" t="s">
         <v>179</v>
-      </c>
-      <c r="F110" t="s">
-        <v>180</v>
       </c>
       <c r="G110" t="n">
         <v>15</v>
@@ -7150,10 +7129,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>180</v>
+      </c>
+      <c r="F112" t="s">
         <v>181</v>
-      </c>
-      <c r="F112" t="s">
-        <v>182</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
@@ -7179,10 +7158,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>182</v>
+      </c>
+      <c r="F113" t="s">
         <v>183</v>
-      </c>
-      <c r="F113" t="s">
-        <v>184</v>
       </c>
       <c r="G113" t="n">
         <v>25</v>
@@ -7208,10 +7187,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>184</v>
+      </c>
+      <c r="F114" t="s">
         <v>185</v>
-      </c>
-      <c r="F114" t="s">
-        <v>186</v>
       </c>
       <c r="G114" t="n">
         <v>5</v>
@@ -7266,10 +7245,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>186</v>
+      </c>
+      <c r="F116" t="s">
         <v>187</v>
-      </c>
-      <c r="F116" t="s">
-        <v>188</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7295,10 +7274,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>188</v>
+      </c>
+      <c r="F117" t="s">
         <v>189</v>
-      </c>
-      <c r="F117" t="s">
-        <v>190</v>
       </c>
       <c r="G117" t="n">
         <v>7</v>
@@ -7324,10 +7303,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F118" t="s">
         <v>191</v>
-      </c>
-      <c r="F118" t="s">
-        <v>192</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -7382,10 +7361,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>192</v>
+      </c>
+      <c r="F120" t="s">
         <v>193</v>
-      </c>
-      <c r="F120" t="s">
-        <v>194</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7411,10 +7390,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>194</v>
+      </c>
+      <c r="F121" t="s">
         <v>195</v>
-      </c>
-      <c r="F121" t="s">
-        <v>196</v>
       </c>
       <c r="G121" t="n">
         <v>20</v>
@@ -7440,10 +7419,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>196</v>
+      </c>
+      <c r="F122" t="s">
         <v>197</v>
-      </c>
-      <c r="F122" t="s">
-        <v>198</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -7469,10 +7448,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>198</v>
+      </c>
+      <c r="F123" t="s">
         <v>199</v>
-      </c>
-      <c r="F123" t="s">
-        <v>200</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7498,10 +7477,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>200</v>
+      </c>
+      <c r="F124" t="s">
         <v>201</v>
-      </c>
-      <c r="F124" t="s">
-        <v>202</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7527,10 +7506,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>202</v>
+      </c>
+      <c r="F125" t="s">
         <v>203</v>
-      </c>
-      <c r="F125" t="s">
-        <v>204</v>
       </c>
       <c r="G125" t="n">
         <v>9</v>
@@ -7556,10 +7535,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>204</v>
+      </c>
+      <c r="F126" t="s">
         <v>205</v>
-      </c>
-      <c r="F126" t="s">
-        <v>206</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -7585,10 +7564,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F127" t="s">
         <v>207</v>
-      </c>
-      <c r="F127" t="s">
-        <v>208</v>
       </c>
       <c r="G127" t="n">
         <v>5</v>
@@ -7614,10 +7593,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>208</v>
+      </c>
+      <c r="F128" t="s">
         <v>209</v>
-      </c>
-      <c r="F128" t="s">
-        <v>210</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7643,10 +7622,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>210</v>
+      </c>
+      <c r="F129" t="s">
         <v>211</v>
-      </c>
-      <c r="F129" t="s">
-        <v>212</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7672,10 +7651,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>212</v>
+      </c>
+      <c r="F130" t="s">
         <v>213</v>
-      </c>
-      <c r="F130" t="s">
-        <v>214</v>
       </c>
       <c r="G130" t="n">
         <v>8</v>
@@ -7701,10 +7680,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>214</v>
+      </c>
+      <c r="F131" t="s">
         <v>215</v>
-      </c>
-      <c r="F131" t="s">
-        <v>216</v>
       </c>
       <c r="G131" t="n">
         <v>6</v>
@@ -7730,10 +7709,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>216</v>
+      </c>
+      <c r="F132" t="s">
         <v>217</v>
-      </c>
-      <c r="F132" t="s">
-        <v>218</v>
       </c>
       <c r="G132" t="n">
         <v>4</v>
@@ -7759,10 +7738,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>218</v>
+      </c>
+      <c r="F133" t="s">
         <v>219</v>
-      </c>
-      <c r="F133" t="s">
-        <v>220</v>
       </c>
       <c r="G133" t="n">
         <v>8</v>
@@ -7788,10 +7767,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>220</v>
+      </c>
+      <c r="F134" t="s">
         <v>221</v>
-      </c>
-      <c r="F134" t="s">
-        <v>222</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7817,10 +7796,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>222</v>
+      </c>
+      <c r="F135" t="s">
         <v>223</v>
-      </c>
-      <c r="F135" t="s">
-        <v>224</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7846,10 +7825,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>224</v>
+      </c>
+      <c r="F136" t="s">
         <v>225</v>
-      </c>
-      <c r="F136" t="s">
-        <v>226</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7875,10 +7854,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>226</v>
+      </c>
+      <c r="F137" t="s">
         <v>227</v>
-      </c>
-      <c r="F137" t="s">
-        <v>228</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -7904,10 +7883,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>228</v>
+      </c>
+      <c r="F138" t="s">
         <v>229</v>
-      </c>
-      <c r="F138" t="s">
-        <v>230</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7933,10 +7912,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>230</v>
+      </c>
+      <c r="F139" t="s">
         <v>231</v>
-      </c>
-      <c r="F139" t="s">
-        <v>232</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7962,10 +7941,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>232</v>
+      </c>
+      <c r="F140" t="s">
         <v>233</v>
-      </c>
-      <c r="F140" t="s">
-        <v>234</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -7991,10 +7970,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>234</v>
+      </c>
+      <c r="F141" t="s">
         <v>235</v>
-      </c>
-      <c r="F141" t="s">
-        <v>236</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8020,10 +7999,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>236</v>
+      </c>
+      <c r="F142" t="s">
         <v>237</v>
-      </c>
-      <c r="F142" t="s">
-        <v>238</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8049,10 +8028,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>238</v>
+      </c>
+      <c r="F143" t="s">
         <v>239</v>
-      </c>
-      <c r="F143" t="s">
-        <v>240</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -8078,10 +8057,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>240</v>
+      </c>
+      <c r="F144" t="s">
         <v>241</v>
-      </c>
-      <c r="F144" t="s">
-        <v>242</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8107,10 +8086,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>242</v>
+      </c>
+      <c r="F145" t="s">
         <v>243</v>
-      </c>
-      <c r="F145" t="s">
-        <v>244</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -8136,10 +8115,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>244</v>
+      </c>
+      <c r="F146" t="s">
         <v>245</v>
-      </c>
-      <c r="F146" t="s">
-        <v>246</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -8165,10 +8144,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>246</v>
+      </c>
+      <c r="F147" t="s">
         <v>247</v>
-      </c>
-      <c r="F147" t="s">
-        <v>248</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -8194,10 +8173,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>248</v>
+      </c>
+      <c r="F148" t="s">
         <v>249</v>
-      </c>
-      <c r="F148" t="s">
-        <v>250</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -8223,10 +8202,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>250</v>
+      </c>
+      <c r="F149" t="s">
         <v>251</v>
-      </c>
-      <c r="F149" t="s">
-        <v>252</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -8252,10 +8231,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>252</v>
+      </c>
+      <c r="F150" t="s">
         <v>253</v>
-      </c>
-      <c r="F150" t="s">
-        <v>254</v>
       </c>
       <c r="G150" t="n">
         <v>6</v>
@@ -8281,10 +8260,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>254</v>
+      </c>
+      <c r="F151" t="s">
         <v>255</v>
-      </c>
-      <c r="F151" t="s">
-        <v>256</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8310,10 +8289,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>256</v>
+      </c>
+      <c r="F152" t="s">
         <v>257</v>
-      </c>
-      <c r="F152" t="s">
-        <v>258</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -8339,10 +8318,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>258</v>
+      </c>
+      <c r="F153" t="s">
         <v>259</v>
-      </c>
-      <c r="F153" t="s">
-        <v>260</v>
       </c>
       <c r="G153" t="n">
         <v>9</v>
@@ -8368,10 +8347,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>260</v>
+      </c>
+      <c r="F154" t="s">
         <v>261</v>
-      </c>
-      <c r="F154" t="s">
-        <v>262</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -8397,10 +8376,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>262</v>
+      </c>
+      <c r="F155" t="s">
         <v>263</v>
-      </c>
-      <c r="F155" t="s">
-        <v>264</v>
       </c>
       <c r="G155" t="n">
         <v>6</v>
@@ -8426,10 +8405,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>264</v>
+      </c>
+      <c r="F156" t="s">
         <v>265</v>
-      </c>
-      <c r="F156" t="s">
-        <v>266</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -8455,10 +8434,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>266</v>
+      </c>
+      <c r="F157" t="s">
         <v>267</v>
-      </c>
-      <c r="F157" t="s">
-        <v>268</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8484,10 +8463,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>268</v>
+      </c>
+      <c r="F158" t="s">
         <v>269</v>
-      </c>
-      <c r="F158" t="s">
-        <v>270</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8600,10 +8579,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>270</v>
+      </c>
+      <c r="F162" t="s">
         <v>271</v>
-      </c>
-      <c r="F162" t="s">
-        <v>272</v>
       </c>
       <c r="G162" t="n">
         <v>6</v>
@@ -8658,10 +8637,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>272</v>
+      </c>
+      <c r="F164" t="s">
         <v>273</v>
-      </c>
-      <c r="F164" t="s">
-        <v>274</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -8687,10 +8666,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>274</v>
+      </c>
+      <c r="F165" t="s">
         <v>275</v>
-      </c>
-      <c r="F165" t="s">
-        <v>276</v>
       </c>
       <c r="G165" t="n">
         <v>7</v>
@@ -8716,10 +8695,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>276</v>
+      </c>
+      <c r="F166" t="s">
         <v>277</v>
-      </c>
-      <c r="F166" t="s">
-        <v>278</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -8745,10 +8724,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>278</v>
+      </c>
+      <c r="F167" t="s">
         <v>279</v>
-      </c>
-      <c r="F167" t="s">
-        <v>280</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -8774,10 +8753,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>280</v>
+      </c>
+      <c r="F168" t="s">
         <v>281</v>
-      </c>
-      <c r="F168" t="s">
-        <v>282</v>
       </c>
       <c r="G168" t="n">
         <v>13</v>
@@ -8803,10 +8782,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>282</v>
+      </c>
+      <c r="F169" t="s">
         <v>283</v>
-      </c>
-      <c r="F169" t="s">
-        <v>284</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -8832,10 +8811,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>284</v>
+      </c>
+      <c r="F170" t="s">
         <v>285</v>
-      </c>
-      <c r="F170" t="s">
-        <v>286</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8861,10 +8840,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>286</v>
+      </c>
+      <c r="F171" t="s">
         <v>287</v>
-      </c>
-      <c r="F171" t="s">
-        <v>288</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -8890,10 +8869,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>288</v>
+      </c>
+      <c r="F172" t="s">
         <v>289</v>
-      </c>
-      <c r="F172" t="s">
-        <v>290</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8919,10 +8898,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>290</v>
+      </c>
+      <c r="F173" t="s">
         <v>291</v>
-      </c>
-      <c r="F173" t="s">
-        <v>292</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8948,10 +8927,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>292</v>
+      </c>
+      <c r="F174" t="s">
         <v>293</v>
-      </c>
-      <c r="F174" t="s">
-        <v>294</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8977,10 +8956,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>294</v>
+      </c>
+      <c r="F175" t="s">
         <v>295</v>
-      </c>
-      <c r="F175" t="s">
-        <v>296</v>
       </c>
       <c r="G175" t="n">
         <v>32</v>
@@ -9006,10 +8985,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>296</v>
+      </c>
+      <c r="F176" t="s">
         <v>297</v>
-      </c>
-      <c r="F176" t="s">
-        <v>298</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9035,10 +9014,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>298</v>
+      </c>
+      <c r="F177" t="s">
         <v>299</v>
-      </c>
-      <c r="F177" t="s">
-        <v>300</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9122,10 +9101,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>300</v>
+      </c>
+      <c r="F180" t="s">
         <v>301</v>
-      </c>
-      <c r="F180" t="s">
-        <v>302</v>
       </c>
       <c r="G180" t="n">
         <v>6</v>
@@ -9151,10 +9130,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>302</v>
+      </c>
+      <c r="F181" t="s">
         <v>303</v>
-      </c>
-      <c r="F181" t="s">
-        <v>304</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9180,10 +9159,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>304</v>
+      </c>
+      <c r="F182" t="s">
         <v>305</v>
-      </c>
-      <c r="F182" t="s">
-        <v>306</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9209,10 +9188,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>306</v>
+      </c>
+      <c r="F183" t="s">
         <v>307</v>
-      </c>
-      <c r="F183" t="s">
-        <v>308</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -9238,10 +9217,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>308</v>
+      </c>
+      <c r="F184" t="s">
         <v>309</v>
-      </c>
-      <c r="F184" t="s">
-        <v>310</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9267,10 +9246,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>308</v>
+      </c>
+      <c r="F185" t="s">
         <v>309</v>
-      </c>
-      <c r="F185" t="s">
-        <v>310</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -9296,10 +9275,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>310</v>
+      </c>
+      <c r="F186" t="s">
         <v>311</v>
-      </c>
-      <c r="F186" t="s">
-        <v>312</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9325,10 +9304,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>312</v>
+      </c>
+      <c r="F187" t="s">
         <v>313</v>
-      </c>
-      <c r="F187" t="s">
-        <v>314</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9354,10 +9333,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>314</v>
+      </c>
+      <c r="F188" t="s">
         <v>315</v>
-      </c>
-      <c r="F188" t="s">
-        <v>316</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9383,10 +9362,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>316</v>
+      </c>
+      <c r="F189" t="s">
         <v>317</v>
-      </c>
-      <c r="F189" t="s">
-        <v>318</v>
       </c>
       <c r="G189" t="n">
         <v>10</v>
@@ -9412,10 +9391,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>318</v>
+      </c>
+      <c r="F190" t="s">
         <v>319</v>
-      </c>
-      <c r="F190" t="s">
-        <v>320</v>
       </c>
       <c r="G190" t="n">
         <v>26</v>
@@ -9441,10 +9420,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>320</v>
+      </c>
+      <c r="F191" t="s">
         <v>321</v>
-      </c>
-      <c r="F191" t="s">
-        <v>322</v>
       </c>
       <c r="G191" t="n">
         <v>21</v>
@@ -9470,10 +9449,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>322</v>
+      </c>
+      <c r="F192" t="s">
         <v>323</v>
-      </c>
-      <c r="F192" t="s">
-        <v>324</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -9499,10 +9478,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>292</v>
+      </c>
+      <c r="F193" t="s">
         <v>293</v>
-      </c>
-      <c r="F193" t="s">
-        <v>294</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9528,10 +9507,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>324</v>
+      </c>
+      <c r="F194" t="s">
         <v>325</v>
-      </c>
-      <c r="F194" t="s">
-        <v>326</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9557,10 +9536,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>326</v>
+      </c>
+      <c r="F195" t="s">
         <v>327</v>
-      </c>
-      <c r="F195" t="s">
-        <v>328</v>
       </c>
       <c r="G195" t="n">
         <v>7</v>
@@ -9586,10 +9565,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>328</v>
+      </c>
+      <c r="F196" t="s">
         <v>329</v>
-      </c>
-      <c r="F196" t="s">
-        <v>330</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -9615,10 +9594,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>330</v>
+      </c>
+      <c r="F197" t="s">
         <v>331</v>
-      </c>
-      <c r="F197" t="s">
-        <v>332</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9644,10 +9623,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>332</v>
+      </c>
+      <c r="F198" t="s">
         <v>333</v>
-      </c>
-      <c r="F198" t="s">
-        <v>334</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9673,10 +9652,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>334</v>
+      </c>
+      <c r="F199" t="s">
         <v>335</v>
-      </c>
-      <c r="F199" t="s">
-        <v>336</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9702,10 +9681,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>336</v>
+      </c>
+      <c r="F200" t="s">
         <v>337</v>
-      </c>
-      <c r="F200" t="s">
-        <v>338</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9731,10 +9710,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>338</v>
+      </c>
+      <c r="F201" t="s">
         <v>339</v>
-      </c>
-      <c r="F201" t="s">
-        <v>340</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -9760,10 +9739,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>340</v>
+      </c>
+      <c r="F202" t="s">
         <v>341</v>
-      </c>
-      <c r="F202" t="s">
-        <v>342</v>
       </c>
       <c r="G202" t="n">
         <v>4</v>
@@ -9789,10 +9768,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>342</v>
+      </c>
+      <c r="F203" t="s">
         <v>343</v>
-      </c>
-      <c r="F203" t="s">
-        <v>344</v>
       </c>
       <c r="G203" t="n">
         <v>19</v>
@@ -9818,10 +9797,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>344</v>
+      </c>
+      <c r="F204" t="s">
         <v>345</v>
-      </c>
-      <c r="F204" t="s">
-        <v>346</v>
       </c>
       <c r="G204" t="n">
         <v>6</v>
@@ -9847,10 +9826,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>346</v>
+      </c>
+      <c r="F205" t="s">
         <v>347</v>
-      </c>
-      <c r="F205" t="s">
-        <v>348</v>
       </c>
       <c r="G205" t="n">
         <v>6</v>
@@ -9876,10 +9855,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>348</v>
+      </c>
+      <c r="F206" t="s">
         <v>349</v>
-      </c>
-      <c r="F206" t="s">
-        <v>350</v>
       </c>
       <c r="G206" t="n">
         <v>8</v>
@@ -9905,10 +9884,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>350</v>
+      </c>
+      <c r="F207" t="s">
         <v>351</v>
-      </c>
-      <c r="F207" t="s">
-        <v>352</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9934,10 +9913,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>352</v>
+      </c>
+      <c r="F208" t="s">
         <v>353</v>
-      </c>
-      <c r="F208" t="s">
-        <v>354</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9963,10 +9942,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>354</v>
+      </c>
+      <c r="F209" t="s">
         <v>355</v>
-      </c>
-      <c r="F209" t="s">
-        <v>356</v>
       </c>
       <c r="G209" t="n">
         <v>32</v>
@@ -9992,10 +9971,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>356</v>
+      </c>
+      <c r="F210" t="s">
         <v>357</v>
-      </c>
-      <c r="F210" t="s">
-        <v>358</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10021,10 +10000,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>358</v>
+      </c>
+      <c r="F211" t="s">
         <v>359</v>
-      </c>
-      <c r="F211" t="s">
-        <v>360</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10050,10 +10029,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>360</v>
+      </c>
+      <c r="F212" t="s">
         <v>361</v>
-      </c>
-      <c r="F212" t="s">
-        <v>362</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -10079,10 +10058,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>362</v>
+      </c>
+      <c r="F213" t="s">
         <v>363</v>
-      </c>
-      <c r="F213" t="s">
-        <v>364</v>
       </c>
       <c r="G213" t="n">
         <v>22</v>
@@ -10108,10 +10087,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>364</v>
+      </c>
+      <c r="F214" t="s">
         <v>365</v>
-      </c>
-      <c r="F214" t="s">
-        <v>366</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -10137,10 +10116,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>366</v>
+      </c>
+      <c r="F215" t="s">
         <v>367</v>
-      </c>
-      <c r="F215" t="s">
-        <v>368</v>
       </c>
       <c r="G215" t="n">
         <v>6</v>
@@ -10166,10 +10145,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>368</v>
+      </c>
+      <c r="F216" t="s">
         <v>369</v>
-      </c>
-      <c r="F216" t="s">
-        <v>370</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -10195,10 +10174,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>370</v>
+      </c>
+      <c r="F217" t="s">
         <v>371</v>
-      </c>
-      <c r="F217" t="s">
-        <v>372</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -10224,10 +10203,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>372</v>
+      </c>
+      <c r="F218" t="s">
         <v>373</v>
-      </c>
-      <c r="F218" t="s">
-        <v>374</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10253,10 +10232,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>374</v>
+      </c>
+      <c r="F219" t="s">
         <v>375</v>
-      </c>
-      <c r="F219" t="s">
-        <v>376</v>
       </c>
       <c r="G219" t="n">
         <v>12</v>
@@ -10282,10 +10261,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>376</v>
+      </c>
+      <c r="F220" t="s">
         <v>377</v>
-      </c>
-      <c r="F220" t="s">
-        <v>378</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -10311,10 +10290,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>378</v>
+      </c>
+      <c r="F221" t="s">
         <v>379</v>
-      </c>
-      <c r="F221" t="s">
-        <v>380</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10340,10 +10319,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>380</v>
+      </c>
+      <c r="F222" t="s">
         <v>381</v>
-      </c>
-      <c r="F222" t="s">
-        <v>382</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10369,10 +10348,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>382</v>
+      </c>
+      <c r="F223" t="s">
         <v>383</v>
-      </c>
-      <c r="F223" t="s">
-        <v>384</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10398,10 +10377,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>384</v>
+      </c>
+      <c r="F224" t="s">
         <v>385</v>
-      </c>
-      <c r="F224" t="s">
-        <v>386</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10427,10 +10406,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>386</v>
+      </c>
+      <c r="F225" t="s">
         <v>387</v>
-      </c>
-      <c r="F225" t="s">
-        <v>388</v>
       </c>
       <c r="G225" t="n">
         <v>9</v>
@@ -10456,10 +10435,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>388</v>
+      </c>
+      <c r="F226" t="s">
         <v>389</v>
-      </c>
-      <c r="F226" t="s">
-        <v>390</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10485,10 +10464,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>390</v>
+      </c>
+      <c r="F227" t="s">
         <v>391</v>
-      </c>
-      <c r="F227" t="s">
-        <v>392</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10514,10 +10493,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>392</v>
+      </c>
+      <c r="F228" t="s">
         <v>393</v>
-      </c>
-      <c r="F228" t="s">
-        <v>394</v>
       </c>
       <c r="G228" t="n">
         <v>10</v>
@@ -10572,10 +10551,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>394</v>
+      </c>
+      <c r="F230" t="s">
         <v>395</v>
-      </c>
-      <c r="F230" t="s">
-        <v>396</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -10601,10 +10580,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>396</v>
+      </c>
+      <c r="F231" t="s">
         <v>397</v>
-      </c>
-      <c r="F231" t="s">
-        <v>398</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -10630,10 +10609,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>398</v>
+      </c>
+      <c r="F232" t="s">
         <v>399</v>
-      </c>
-      <c r="F232" t="s">
-        <v>400</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10659,10 +10638,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>400</v>
+      </c>
+      <c r="F233" t="s">
         <v>401</v>
-      </c>
-      <c r="F233" t="s">
-        <v>402</v>
       </c>
       <c r="G233" t="n">
         <v>4</v>
@@ -10688,10 +10667,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>402</v>
+      </c>
+      <c r="F234" t="s">
         <v>403</v>
-      </c>
-      <c r="F234" t="s">
-        <v>404</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -10717,10 +10696,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>404</v>
+      </c>
+      <c r="F235" t="s">
         <v>405</v>
-      </c>
-      <c r="F235" t="s">
-        <v>406</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -10746,10 +10725,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>406</v>
+      </c>
+      <c r="F236" t="s">
         <v>407</v>
-      </c>
-      <c r="F236" t="s">
-        <v>408</v>
       </c>
       <c r="G236" t="n">
         <v>4</v>
@@ -10775,10 +10754,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>408</v>
+      </c>
+      <c r="F237" t="s">
         <v>409</v>
-      </c>
-      <c r="F237" t="s">
-        <v>410</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -10804,10 +10783,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>410</v>
+      </c>
+      <c r="F238" t="s">
         <v>411</v>
-      </c>
-      <c r="F238" t="s">
-        <v>412</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10862,10 +10841,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>412</v>
+      </c>
+      <c r="F240" t="s">
         <v>413</v>
-      </c>
-      <c r="F240" t="s">
-        <v>414</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10891,10 +10870,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>414</v>
+      </c>
+      <c r="F241" t="s">
         <v>415</v>
-      </c>
-      <c r="F241" t="s">
-        <v>416</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10920,10 +10899,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>416</v>
+      </c>
+      <c r="F242" t="s">
         <v>417</v>
-      </c>
-      <c r="F242" t="s">
-        <v>418</v>
       </c>
       <c r="G242" t="n">
         <v>4</v>
@@ -10949,10 +10928,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>418</v>
+      </c>
+      <c r="F243" t="s">
         <v>419</v>
-      </c>
-      <c r="F243" t="s">
-        <v>420</v>
       </c>
       <c r="G243" t="n">
         <v>4</v>
@@ -10978,10 +10957,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>420</v>
+      </c>
+      <c r="F244" t="s">
         <v>421</v>
-      </c>
-      <c r="F244" t="s">
-        <v>422</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -11007,10 +10986,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>422</v>
+      </c>
+      <c r="F245" t="s">
         <v>423</v>
-      </c>
-      <c r="F245" t="s">
-        <v>424</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11036,10 +11015,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>424</v>
+      </c>
+      <c r="F246" t="s">
         <v>425</v>
-      </c>
-      <c r="F246" t="s">
-        <v>426</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11065,10 +11044,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>294</v>
+      </c>
+      <c r="F247" t="s">
         <v>295</v>
-      </c>
-      <c r="F247" t="s">
-        <v>296</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11094,10 +11073,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>426</v>
+      </c>
+      <c r="F248" t="s">
         <v>427</v>
-      </c>
-      <c r="F248" t="s">
-        <v>428</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11123,10 +11102,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>428</v>
+      </c>
+      <c r="F249" t="s">
         <v>429</v>
-      </c>
-      <c r="F249" t="s">
-        <v>430</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11152,10 +11131,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>430</v>
+      </c>
+      <c r="F250" t="s">
         <v>431</v>
-      </c>
-      <c r="F250" t="s">
-        <v>432</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11181,10 +11160,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>432</v>
+      </c>
+      <c r="F251" t="s">
         <v>433</v>
-      </c>
-      <c r="F251" t="s">
-        <v>434</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -11210,10 +11189,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>434</v>
+      </c>
+      <c r="F252" t="s">
         <v>435</v>
-      </c>
-      <c r="F252" t="s">
-        <v>436</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11239,10 +11218,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>436</v>
+      </c>
+      <c r="F253" t="s">
         <v>437</v>
-      </c>
-      <c r="F253" t="s">
-        <v>438</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11268,10 +11247,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>438</v>
+      </c>
+      <c r="F254" t="s">
         <v>439</v>
-      </c>
-      <c r="F254" t="s">
-        <v>440</v>
       </c>
       <c r="G254" t="n">
         <v>10</v>
@@ -11297,10 +11276,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>440</v>
+      </c>
+      <c r="F255" t="s">
         <v>441</v>
-      </c>
-      <c r="F255" t="s">
-        <v>442</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11326,10 +11305,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>442</v>
+      </c>
+      <c r="F256" t="s">
         <v>443</v>
-      </c>
-      <c r="F256" t="s">
-        <v>444</v>
       </c>
       <c r="G256" t="n">
         <v>10</v>
@@ -11355,10 +11334,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>444</v>
+      </c>
+      <c r="F257" t="s">
         <v>445</v>
-      </c>
-      <c r="F257" t="s">
-        <v>446</v>
       </c>
       <c r="G257" t="n">
         <v>9</v>
@@ -11384,10 +11363,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>446</v>
+      </c>
+      <c r="F258" t="s">
         <v>447</v>
-      </c>
-      <c r="F258" t="s">
-        <v>448</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -11413,10 +11392,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>448</v>
+      </c>
+      <c r="F259" t="s">
         <v>449</v>
-      </c>
-      <c r="F259" t="s">
-        <v>450</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11442,10 +11421,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>450</v>
+      </c>
+      <c r="F260" t="s">
         <v>451</v>
-      </c>
-      <c r="F260" t="s">
-        <v>452</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11471,10 +11450,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>452</v>
+      </c>
+      <c r="F261" t="s">
         <v>453</v>
-      </c>
-      <c r="F261" t="s">
-        <v>454</v>
       </c>
       <c r="G261" t="n">
         <v>70</v>
@@ -11500,10 +11479,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>454</v>
+      </c>
+      <c r="F262" t="s">
         <v>455</v>
-      </c>
-      <c r="F262" t="s">
-        <v>456</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11529,10 +11508,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>456</v>
+      </c>
+      <c r="F263" t="s">
         <v>457</v>
-      </c>
-      <c r="F263" t="s">
-        <v>458</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11558,10 +11537,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>458</v>
+      </c>
+      <c r="F264" t="s">
         <v>459</v>
-      </c>
-      <c r="F264" t="s">
-        <v>460</v>
       </c>
       <c r="G264" t="n">
         <v>5</v>
@@ -11587,10 +11566,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>460</v>
+      </c>
+      <c r="F265" t="s">
         <v>461</v>
-      </c>
-      <c r="F265" t="s">
-        <v>462</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -11616,10 +11595,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>462</v>
+      </c>
+      <c r="F266" t="s">
         <v>463</v>
-      </c>
-      <c r="F266" t="s">
-        <v>464</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -11645,10 +11624,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>464</v>
+      </c>
+      <c r="F267" t="s">
         <v>465</v>
-      </c>
-      <c r="F267" t="s">
-        <v>466</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11674,10 +11653,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>466</v>
+      </c>
+      <c r="F268" t="s">
         <v>467</v>
-      </c>
-      <c r="F268" t="s">
-        <v>468</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11703,10 +11682,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>468</v>
+      </c>
+      <c r="F269" t="s">
         <v>469</v>
-      </c>
-      <c r="F269" t="s">
-        <v>470</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11732,10 +11711,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>470</v>
+      </c>
+      <c r="F270" t="s">
         <v>471</v>
-      </c>
-      <c r="F270" t="s">
-        <v>472</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11761,10 +11740,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>472</v>
+      </c>
+      <c r="F271" t="s">
         <v>473</v>
-      </c>
-      <c r="F271" t="s">
-        <v>474</v>
       </c>
       <c r="G271" t="n">
         <v>7</v>
@@ -11790,10 +11769,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>474</v>
+      </c>
+      <c r="F272" t="s">
         <v>475</v>
-      </c>
-      <c r="F272" t="s">
-        <v>476</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11819,10 +11798,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>476</v>
+      </c>
+      <c r="F273" t="s">
         <v>477</v>
-      </c>
-      <c r="F273" t="s">
-        <v>478</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11848,10 +11827,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>478</v>
+      </c>
+      <c r="F274" t="s">
         <v>479</v>
-      </c>
-      <c r="F274" t="s">
-        <v>480</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11877,10 +11856,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>480</v>
+      </c>
+      <c r="F275" t="s">
         <v>481</v>
-      </c>
-      <c r="F275" t="s">
-        <v>482</v>
       </c>
       <c r="G275" t="n">
         <v>11</v>
@@ -11906,10 +11885,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>482</v>
+      </c>
+      <c r="F276" t="s">
         <v>483</v>
-      </c>
-      <c r="F276" t="s">
-        <v>484</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11935,10 +11914,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F277" t="s">
-        <v>486</v>
+        <v>158</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11964,10 +11943,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F278" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11993,10 +11972,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F279" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G279" t="n">
         <v>4</v>
@@ -12022,10 +12001,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F280" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G280" t="n">
         <v>7</v>
@@ -12051,10 +12030,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F281" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12080,10 +12059,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F282" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12109,10 +12088,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F283" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12138,10 +12117,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F284" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -12167,10 +12146,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F285" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12196,10 +12175,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F286" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12225,10 +12204,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F287" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G287" t="n">
         <v>4</v>
@@ -12254,10 +12233,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F288" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12283,10 +12262,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F289" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -12312,10 +12291,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F290" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -12341,10 +12320,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F291" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12370,10 +12349,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F292" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12399,10 +12378,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F293" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12428,10 +12407,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F294" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12457,10 +12436,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F295" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12515,10 +12494,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F297" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12544,10 +12523,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F298" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12573,10 +12552,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F299" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12602,10 +12581,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F300" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12631,10 +12610,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F301" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G301" t="n">
         <v>4</v>
@@ -12660,10 +12639,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F302" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G302" t="n">
         <v>6</v>
@@ -12689,10 +12668,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F303" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12718,10 +12697,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F304" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12747,10 +12726,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F305" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12776,10 +12755,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F306" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12805,10 +12784,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F307" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12834,10 +12813,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F308" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12863,10 +12842,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F309" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12892,10 +12871,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F310" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12921,10 +12900,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>330</v>
+      </c>
+      <c r="F311" t="s">
         <v>331</v>
-      </c>
-      <c r="F311" t="s">
-        <v>332</v>
       </c>
       <c r="G311" t="n">
         <v>6</v>
@@ -12950,10 +12929,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F312" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12979,10 +12958,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F313" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13008,10 +12987,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F314" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G314" t="n">
         <v>4</v>
@@ -13066,10 +13045,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F316" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G316" t="n">
         <v>5</v>
@@ -13095,10 +13074,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F317" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G317" t="n">
         <v>4</v>
@@ -13124,10 +13103,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F318" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G318" t="n">
         <v>13</v>
@@ -13153,10 +13132,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F319" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G319" t="n">
         <v>18</v>
@@ -13182,10 +13161,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F320" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G320" t="n">
         <v>158</v>
@@ -13211,10 +13190,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F321" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G321" t="n">
         <v>4</v>
@@ -13240,10 +13219,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F322" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -13298,10 +13277,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F324" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G324" t="n">
         <v>3</v>
@@ -13327,10 +13306,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F325" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -13414,10 +13393,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F328" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -13443,10 +13422,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F329" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -13472,10 +13451,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F330" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13501,10 +13480,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F331" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13530,10 +13509,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F332" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G332" t="n">
         <v>17</v>
@@ -13559,10 +13538,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F333" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13617,10 +13596,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F335" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G335" t="n">
         <v>4</v>
@@ -13733,10 +13712,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F339" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13762,10 +13741,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F340" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G340" t="n">
         <v>24</v>
@@ -13791,10 +13770,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F341" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G341" t="n">
         <v>4</v>
@@ -13820,10 +13799,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F342" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13849,10 +13828,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F343" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13878,10 +13857,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>186</v>
+      </c>
+      <c r="F344" t="s">
         <v>187</v>
-      </c>
-      <c r="F344" t="s">
-        <v>188</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13907,10 +13886,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F345" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13936,10 +13915,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F346" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13965,10 +13944,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F347" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13994,10 +13973,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F348" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14023,10 +14002,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F349" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14052,10 +14031,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F350" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14081,10 +14060,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F351" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14110,10 +14089,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F352" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G352" t="n">
         <v>4</v>
@@ -14139,10 +14118,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>286</v>
+      </c>
+      <c r="F353" t="s">
         <v>287</v>
-      </c>
-      <c r="F353" t="s">
-        <v>288</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14168,10 +14147,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F354" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14226,10 +14205,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F356" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14255,10 +14234,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F357" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G357" t="n">
         <v>32</v>
@@ -14284,10 +14263,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F358" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G358" t="n">
         <v>4</v>
@@ -14313,10 +14292,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F359" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G359" t="n">
         <v>6</v>
@@ -14342,10 +14321,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F360" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G360" t="n">
         <v>3</v>
@@ -14371,10 +14350,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F361" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G361" t="n">
         <v>6</v>
@@ -14400,10 +14379,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F362" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G362" t="n">
         <v>33</v>
@@ -14429,10 +14408,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F363" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G363" t="n">
         <v>5</v>
@@ -14458,10 +14437,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>220</v>
+      </c>
+      <c r="F364" t="s">
         <v>221</v>
-      </c>
-      <c r="F364" t="s">
-        <v>222</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -14487,10 +14466,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F365" t="s">
-        <v>626</v>
+        <v>223</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14516,10 +14495,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F366" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -14545,10 +14524,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F367" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G367" t="n">
         <v>122</v>
@@ -14574,10 +14553,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F368" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G368" t="n">
         <v>15</v>
@@ -14603,10 +14582,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F369" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G369" t="n">
         <v>18</v>
@@ -14661,10 +14640,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F371" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G371" t="n">
         <v>5</v>
@@ -14690,10 +14669,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F372" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -14719,10 +14698,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F373" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G373" t="n">
         <v>7</v>
@@ -14748,10 +14727,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F374" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G374" t="n">
         <v>780</v>
@@ -14777,10 +14756,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F375" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14806,10 +14785,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F376" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14835,10 +14814,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F377" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14864,10 +14843,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F378" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14893,10 +14872,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F379" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -14922,10 +14901,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F380" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14951,10 +14930,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F381" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G381" t="n">
         <v>3</v>
@@ -14980,10 +14959,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F382" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G382" t="n">
         <v>4</v>
@@ -15009,10 +14988,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F383" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -15038,10 +15017,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F384" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15067,10 +15046,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F385" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15096,10 +15075,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F386" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15125,10 +15104,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F387" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -15154,10 +15133,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F388" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -15183,10 +15162,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F389" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15212,10 +15191,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F390" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15241,10 +15220,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F391" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -15270,10 +15249,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F392" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15299,10 +15278,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F393" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15328,10 +15307,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F394" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G394" t="n">
         <v>10</v>
@@ -15357,10 +15336,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F395" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15386,10 +15365,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F396" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15415,10 +15394,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F397" t="s">
-        <v>684</v>
+        <v>550</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15444,10 +15423,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F398" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15473,10 +15452,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F399" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15502,10 +15481,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F400" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -15531,10 +15510,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F401" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15560,10 +15539,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F402" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15589,10 +15568,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
+        <v>330</v>
+      </c>
+      <c r="F403" t="s">
         <v>331</v>
-      </c>
-      <c r="F403" t="s">
-        <v>332</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15618,10 +15597,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F404" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15647,10 +15626,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F405" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15676,10 +15655,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F406" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15705,10 +15684,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F407" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15734,10 +15713,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F408" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15763,10 +15742,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F409" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15792,10 +15771,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F410" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15821,10 +15800,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F411" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G411" t="n">
         <v>6</v>
@@ -15850,10 +15829,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F412" t="s">
-        <v>710</v>
+        <v>227</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15908,10 +15887,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F414" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15937,10 +15916,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F415" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15966,10 +15945,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F416" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15995,10 +15974,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F417" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16024,10 +16003,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F418" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16053,10 +16032,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F419" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -16082,10 +16061,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F420" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -16111,10 +16090,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F421" t="s">
-        <v>724</v>
+        <v>132</v>
       </c>
       <c r="G421" t="n">
         <v>6</v>
@@ -16140,10 +16119,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F422" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G422" t="n">
         <v>6</v>
@@ -16198,10 +16177,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F424" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -16227,10 +16206,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F425" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G425" t="n">
         <v>15</v>
@@ -16256,10 +16235,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F426" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G426" t="n">
         <v>25</v>
@@ -16285,10 +16264,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F427" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16314,10 +16293,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F428" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16343,10 +16322,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F429" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G429" t="n">
         <v>9</v>
@@ -16372,10 +16351,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F430" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G430" t="n">
         <v>17</v>
@@ -16401,10 +16380,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F431" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16430,10 +16409,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F432" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16459,10 +16438,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F433" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G433" t="n">
         <v>7</v>
@@ -16488,10 +16467,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F434" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G434" t="n">
         <v>3</v>
@@ -16517,10 +16496,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F435" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -16546,10 +16525,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F436" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G436" t="n">
         <v>6</v>
@@ -16575,10 +16554,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F437" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G437" t="n">
         <v>5</v>
@@ -16604,10 +16583,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F438" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G438" t="n">
         <v>4</v>
@@ -16633,10 +16612,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F439" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16662,10 +16641,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F440" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16691,10 +16670,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F441" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16720,10 +16699,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F442" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G442" t="n">
         <v>4</v>
@@ -16749,10 +16728,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F443" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16778,10 +16757,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F444" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16807,10 +16786,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F445" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16836,10 +16815,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F446" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -16865,10 +16844,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F447" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -16894,10 +16873,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F448" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16923,10 +16902,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F449" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G449" t="n">
         <v>3</v>
@@ -16952,10 +16931,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F450" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G450" t="n">
         <v>6</v>
@@ -16981,10 +16960,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F451" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17010,10 +16989,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F452" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17039,10 +17018,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F453" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17068,10 +17047,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F454" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G454" t="n">
         <v>7</v>
@@ -17097,10 +17076,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
+        <v>192</v>
+      </c>
+      <c r="F455" t="s">
         <v>193</v>
-      </c>
-      <c r="F455" t="s">
-        <v>194</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17126,10 +17105,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F456" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17155,10 +17134,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F457" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17184,10 +17163,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F458" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17213,10 +17192,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F459" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17242,10 +17221,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F460" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17271,10 +17250,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F461" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -17300,10 +17279,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F462" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17329,10 +17308,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F463" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17358,10 +17337,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F464" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17387,10 +17366,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F465" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17416,10 +17395,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F466" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17445,10 +17424,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F467" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17474,10 +17453,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F468" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17503,10 +17482,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F469" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17532,10 +17511,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F470" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17561,10 +17540,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F471" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17590,10 +17569,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F472" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17619,10 +17598,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F473" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17648,10 +17627,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F474" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17677,10 +17656,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F475" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17706,10 +17685,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F476" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17735,10 +17714,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F477" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17764,10 +17743,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F478" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17793,10 +17772,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F479" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17822,10 +17801,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="F480" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17851,10 +17830,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F481" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17880,10 +17859,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F482" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17909,10 +17888,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F483" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17938,10 +17917,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="F484" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17967,10 +17946,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F485" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17996,10 +17975,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F486" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G486" t="n">
         <v>5</v>
@@ -18025,10 +18004,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F487" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G487" t="n">
         <v>2</v>
@@ -18054,10 +18033,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F488" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18083,10 +18062,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="F489" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18112,10 +18091,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="F490" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18141,10 +18120,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F491" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18170,10 +18149,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="F492" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18199,10 +18178,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F493" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G493" t="n">
         <v>4</v>
@@ -18228,10 +18207,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F494" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G494" t="n">
         <v>4</v>
@@ -18257,10 +18236,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="F495" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -18286,10 +18265,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F496" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -18315,10 +18294,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="F497" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18344,10 +18323,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F498" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="G498" t="n">
         <v>9</v>
@@ -18373,10 +18352,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="F499" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="G499" t="n">
         <v>31</v>
@@ -18431,10 +18410,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="F501" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G501" t="n">
         <v>2248</v>
@@ -18460,10 +18439,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="F502" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G502" t="n">
         <v>1079</v>
@@ -18489,10 +18468,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="F503" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G503" t="n">
         <v>877</v>
@@ -18518,10 +18497,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F504" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18547,10 +18526,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
+        <v>428</v>
+      </c>
+      <c r="F505" t="s">
         <v>429</v>
-      </c>
-      <c r="F505" t="s">
-        <v>430</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18576,10 +18555,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F506" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18605,10 +18584,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="F507" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="G507" t="n">
         <v>3</v>
@@ -18634,10 +18613,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F508" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G508" t="n">
         <v>4</v>
@@ -18663,10 +18642,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F509" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G509" t="n">
         <v>5</v>
@@ -18692,10 +18671,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F510" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18721,10 +18700,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="F511" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="G511" t="n">
         <v>13</v>
@@ -18750,10 +18729,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
+        <v>372</v>
+      </c>
+      <c r="F512" t="s">
         <v>373</v>
-      </c>
-      <c r="F512" t="s">
-        <v>374</v>
       </c>
       <c r="G512" t="n">
         <v>4</v>
@@ -18779,10 +18758,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F513" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18808,10 +18787,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F514" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="G514" t="n">
         <v>2</v>
@@ -18837,10 +18816,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="F515" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G515" t="n">
         <v>2</v>
@@ -18866,10 +18845,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="F516" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18895,10 +18874,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="F517" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="G517" t="n">
         <v>2</v>
@@ -18924,10 +18903,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F518" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18953,10 +18932,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="F519" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G519" t="n">
         <v>2</v>
@@ -18982,10 +18961,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F520" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G520" t="n">
         <v>2</v>
@@ -19011,10 +18990,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F521" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G521" t="n">
         <v>2</v>
@@ -19040,10 +19019,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F522" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19098,10 +19077,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F524" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="G524" t="n">
         <v>2</v>
@@ -19127,10 +19106,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
+        <v>292</v>
+      </c>
+      <c r="F525" t="s">
         <v>293</v>
-      </c>
-      <c r="F525" t="s">
-        <v>294</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19156,10 +19135,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F526" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19185,10 +19164,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F527" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G527" t="n">
         <v>2</v>
@@ -19214,10 +19193,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F528" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G528" t="n">
         <v>4</v>
@@ -19243,10 +19222,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="F529" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="G529" t="n">
         <v>2</v>
@@ -19272,10 +19251,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F530" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19301,10 +19280,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F531" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19330,10 +19309,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="F532" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19359,10 +19338,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="F533" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="G533" t="n">
         <v>2</v>
@@ -19388,10 +19367,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="F534" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="G534" t="n">
         <v>2</v>
@@ -19417,10 +19396,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="F535" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19446,10 +19425,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="F536" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19475,10 +19454,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="F537" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="G537" t="n">
         <v>2</v>
@@ -19504,10 +19483,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="F538" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="G538" t="n">
         <v>2</v>
@@ -19533,10 +19512,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="F539" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19562,10 +19541,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="F540" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19591,10 +19570,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="F541" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19620,10 +19599,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="F542" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19649,10 +19628,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="F543" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19678,10 +19657,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F544" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19707,10 +19686,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F545" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19736,10 +19715,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="F546" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19765,10 +19744,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F547" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19794,10 +19773,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="F548" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19823,10 +19802,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="F549" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="G549" t="n">
         <v>3</v>
@@ -19852,10 +19831,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F550" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19881,10 +19860,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="F551" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19910,10 +19889,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="F552" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19939,10 +19918,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F553" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19968,10 +19947,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F554" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19997,10 +19976,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F555" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20026,10 +20005,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F556" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20084,10 +20063,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="F558" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20113,10 +20092,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="F559" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20142,10 +20121,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F560" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="G560" t="n">
         <v>5</v>
@@ -20171,10 +20150,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F561" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20229,10 +20208,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F563" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20258,10 +20237,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F564" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20287,10 +20266,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
+        <v>318</v>
+      </c>
+      <c r="F565" t="s">
         <v>319</v>
-      </c>
-      <c r="F565" t="s">
-        <v>320</v>
       </c>
       <c r="G565" t="n">
         <v>16</v>
@@ -20316,10 +20295,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="F566" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="G566" t="n">
         <v>6</v>
@@ -20345,10 +20324,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="F567" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="G567" t="n">
         <v>8</v>
@@ -20374,10 +20353,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F568" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20403,10 +20382,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F569" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="G569" t="n">
         <v>3</v>
@@ -20432,10 +20411,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F570" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20461,10 +20440,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F571" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="G571" t="n">
         <v>2</v>
@@ -20490,10 +20469,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="F572" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20519,10 +20498,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F573" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G573" t="n">
         <v>2</v>
@@ -20548,10 +20527,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F574" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20577,10 +20556,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F575" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G575" t="n">
         <v>2</v>
@@ -20606,10 +20585,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F576" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20635,10 +20614,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F577" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="G577" t="n">
         <v>2</v>
@@ -20664,10 +20643,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F578" t="s">
-        <v>1008</v>
+        <v>331</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20693,10 +20672,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="F579" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20722,10 +20701,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="F580" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20751,10 +20730,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="F581" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="G581" t="n">
         <v>2</v>
@@ -20780,10 +20759,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="F582" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20809,10 +20788,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="F583" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20838,10 +20817,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="F584" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20867,10 +20846,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="F585" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="G585" t="n">
         <v>4</v>
@@ -20896,10 +20875,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="F586" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="G586" t="n">
         <v>6</v>
@@ -20925,10 +20904,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="F587" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20954,10 +20933,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="F588" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20983,10 +20962,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="F589" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21012,10 +20991,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="F590" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21041,10 +21020,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F591" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G591" t="n">
         <v>3</v>
@@ -21070,10 +21049,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="F592" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21099,10 +21078,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="F593" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21128,10 +21107,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="F594" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21157,10 +21136,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="F595" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21186,10 +21165,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="F596" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="G596" t="n">
         <v>4</v>
@@ -21215,10 +21194,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="F597" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="G597" t="n">
         <v>74</v>
@@ -21244,10 +21223,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="F598" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21302,10 +21281,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="F600" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21331,10 +21310,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="F601" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="G601" t="n">
         <v>9</v>
@@ -21360,10 +21339,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="F602" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21389,10 +21368,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="F603" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21418,10 +21397,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="F604" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="G604" t="n">
         <v>2</v>
@@ -21447,10 +21426,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="F605" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21476,10 +21455,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="F606" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21505,10 +21484,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
+        <v>450</v>
+      </c>
+      <c r="F607" t="s">
         <v>451</v>
-      </c>
-      <c r="F607" t="s">
-        <v>452</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21534,10 +21513,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="F608" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21563,10 +21542,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="F609" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21592,10 +21571,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="F610" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21621,10 +21600,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="F611" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21650,10 +21629,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="F612" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21679,10 +21658,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="F613" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21708,10 +21687,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="F614" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="G614" t="n">
         <v>2</v>
@@ -21737,10 +21716,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="F615" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21766,10 +21745,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="F616" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21795,10 +21774,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="F617" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21824,10 +21803,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="F618" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21853,10 +21832,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="F619" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -21882,10 +21861,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="F620" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21911,10 +21890,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F621" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="G621" t="n">
         <v>2</v>
@@ -21940,10 +21919,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F622" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -21969,10 +21948,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F623" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -21998,10 +21977,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="F624" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22027,10 +22006,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="F625" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22056,10 +22035,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="F626" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22085,10 +22064,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="F627" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22114,10 +22093,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="F628" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22143,10 +22122,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="F629" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22172,10 +22151,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="F630" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22201,10 +22180,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="F631" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22230,10 +22209,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="F632" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22259,10 +22238,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="F633" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22288,10 +22267,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="F634" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22317,10 +22296,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="F635" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22346,10 +22325,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="F636" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="G636" t="n">
         <v>2</v>
@@ -22375,10 +22354,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="F637" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22404,10 +22383,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="F638" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22433,10 +22412,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="F639" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22462,10 +22441,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="F640" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22491,10 +22470,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="F641" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22520,10 +22499,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="F642" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="G642" t="n">
         <v>2</v>
@@ -22549,10 +22528,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="F643" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22578,10 +22557,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="F644" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22607,10 +22586,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="F645" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22636,10 +22615,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="F646" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22665,10 +22644,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="F647" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22694,10 +22673,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="F648" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22723,10 +22702,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="F649" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22752,10 +22731,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="F650" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -22781,10 +22760,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="F651" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -22810,10 +22789,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="F652" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -22839,10 +22818,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="F653" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -22868,10 +22847,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="F654" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -22897,10 +22876,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F655" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -22926,10 +22905,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="F656" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -22955,10 +22934,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="F657" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -22984,10 +22963,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="F658" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23013,10 +22992,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="F659" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23042,10 +23021,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="F660" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="G660" t="n">
         <v>3</v>
@@ -23071,10 +23050,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="F661" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="G661" t="n">
         <v>2</v>
@@ -23100,10 +23079,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="F662" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23129,10 +23108,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="F663" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23158,10 +23137,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="F664" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23187,10 +23166,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="F665" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="G665" t="n">
         <v>33</v>
@@ -23216,10 +23195,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="F666" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23245,10 +23224,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="F667" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="G667" t="n">
         <v>6</v>
@@ -23274,10 +23253,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="F668" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="G668" t="n">
         <v>3</v>
@@ -23303,10 +23282,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="F669" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23332,10 +23311,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="F670" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -23361,10 +23340,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F671" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
